--- a/src/test/resources/TestData/konakarttestdata.xlsx
+++ b/src/test/resources/TestData/konakarttestdata.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695" activeTab="2"/>
+    <workbookView windowWidth="15195" windowHeight="5880" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="positivesearchcase" sheetId="1" r:id="rId1"/>
     <sheet name="negativesearchcase" sheetId="2" r:id="rId2"/>
-    <sheet name="productdetails" sheetId="3" r:id="rId3"/>
+    <sheet name="productdetail" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
-  <oleSize ref="A13:B23"/>
+  <oleSize ref="A1:B11"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t>categories</t>
   </si>
@@ -76,48 +76,26 @@
     <t>123sas</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Specification</t>
+    <t>kindleDescription</t>
+  </si>
+  <si>
+    <t>specification</t>
+  </si>
+  <si>
+    <t>coffeeMachineDescription</t>
   </si>
   <si>
     <t>World's most advanced 7" tablet
-1280x800 HD display with polarizing 
-filter and anti-glare technology for 
-rich color and deep contrast from 
-any viewing angle
-Exclusive Dolby audio and dual-driver
- stereo speakers for immersive, virtual 
-surround sound
-World's first tablet with dual-band,
- dual-antenna Wi-Fi for 40% faster downloads
- and streaming (compared to iPad 3)
-High performance 1.2 Ghz dual-core processor 
-with Imagination PowerVR 3D graphics core for 
-fast and fluid performance</t>
-  </si>
-  <si>
-    <t>Add your product specifications here. 
-By default, the Enterprise version of 
-KonaKart displays the template based 
-custom attributes.</t>
-  </si>
-  <si>
-    <t>The De'Longhi BCO 410 is a 15 bar espresso/filter 
-coffee machine that will ensure you get the perfect 
-coffee experience, regardless of your tastes. Able 
-to make 10 cups of filter coffee or individual espressos 
-(either via ground coffee or with "Easy Serving Espresso" 
-pods), the BCO 410 is a versatile and high-quality machine. 
-The espresso portion of the machine comes complete with
- a crema filter holder, adjustable steam emission, removable 
-water reservoir and cup holder. The filter coffee portion of 
-the machine comes complete with a jug warmer to ensure 
-the coffee remains hot after brewing, frontal loading to make 
-the machine incredibly easy to refill (both water and coffee) 
-and a water filtration system to make your coffee taste that 
-much better.</t>
+1280x800 HD display with polarizing filter and anti-glare technology for rich color and deep contrast from any viewing angle
+Exclusive Dolby audio and dual-driver stereo speakers for immersive, virtual surround sound
+World's first tablet with dual-band, dual-antenna Wi-Fi for 40% faster downloads and streaming (compared to iPad 3)
+High performance 1.2 Ghz dual-core processor with Imagination PowerVR 3D graphics core for fast and fluid performance</t>
+  </si>
+  <si>
+    <t>Add your product specifications here. By default, the Enterprise version of KonaKart displays the template based custom attributes.</t>
+  </si>
+  <si>
+    <t>The De'Longhi BCO 410 is a 15 bar espresso/filter coffee machine that will ensure you get the perfect coffee experience, regardless of your tastes. Able to make 10 cups of filter coffee or individual espressos (either via ground coffee or with "Easy Serving Espresso" pods), the BCO 410 is a versatile and high-quality machine. The espresso portion of the machine comes complete with a crema filter holder, adjustable steam emission, removable water reservoir and cup holder. The filter coffee portion of the machine comes complete with a jug warmer to ensure the coffee remains hot after brewing, frontal loading to make the machine incredibly easy to refill (both water and coffee) and a water filtration system to make your coffee taste that much better.</t>
   </si>
 </sst>
 </file>
@@ -125,9 +103,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -154,8 +132,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,14 +142,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,6 +156,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -194,7 +219,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,74 +249,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,31 +270,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,151 +444,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,6 +461,60 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -505,22 +537,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,45 +553,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -588,148 +566,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1243,40 +1221,39 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="56.5714285714286" customWidth="1"/>
-    <col min="2" max="2" width="25.1428571428571" customWidth="1"/>
+    <col min="1" max="1" width="17.8571428571429" customWidth="1"/>
+    <col min="2" max="2" width="13.8571428571429" customWidth="1"/>
+    <col min="3" max="3" width="24.8571428571429" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
       <c r="B1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" ht="210" spans="1:2">
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" ht="409.5" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" ht="210" spans="1:2">
-      <c r="A3" s="1" t="s">
+      <c r="B2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>22</v>
+      <c r="C2" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
